--- a/log_history/Y3_B2526_all_sessions_4791e799a156631a1e6528d73ff0b3_2025-10-05T12-14-09.xlsx
+++ b/log_history/Y3_B2526_all_sessions_4791e799a156631a1e6528d73ff0b3_2025-10-05T12-14-09.xlsx
@@ -1,41 +1,410 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB184847-C511-4793-9BF2-F5699F76376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1140" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Pharmacology" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="126">
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Log Date</t>
+  </si>
+  <si>
+    <t>Log Time</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>241423</t>
+  </si>
+  <si>
+    <t>Pharmacology</t>
+  </si>
+  <si>
+    <t>05/10/2025</t>
+  </si>
+  <si>
+    <t>13:32:32</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>marian.samir@med.asu.edu.eg</t>
+  </si>
+  <si>
+    <t>231263</t>
+  </si>
+  <si>
+    <t>13:32:41</t>
+  </si>
+  <si>
+    <t>231147</t>
+  </si>
+  <si>
+    <t>13:32:49</t>
+  </si>
+  <si>
+    <t>231221</t>
+  </si>
+  <si>
+    <t>231222</t>
+  </si>
+  <si>
+    <t>231223</t>
+  </si>
+  <si>
+    <t>231224</t>
+  </si>
+  <si>
+    <t>231225</t>
+  </si>
+  <si>
+    <t>231226</t>
+  </si>
+  <si>
+    <t>231227</t>
+  </si>
+  <si>
+    <t>231228</t>
+  </si>
+  <si>
+    <t>231229</t>
+  </si>
+  <si>
+    <t>231230</t>
+  </si>
+  <si>
+    <t>231231</t>
+  </si>
+  <si>
+    <t>231232</t>
+  </si>
+  <si>
+    <t>231233</t>
+  </si>
+  <si>
+    <t>231235</t>
+  </si>
+  <si>
+    <t>231236</t>
+  </si>
+  <si>
+    <t>231237</t>
+  </si>
+  <si>
+    <t>231239</t>
+  </si>
+  <si>
+    <t>231240</t>
+  </si>
+  <si>
+    <t>231241</t>
+  </si>
+  <si>
+    <t>231242</t>
+  </si>
+  <si>
+    <t>231243</t>
+  </si>
+  <si>
+    <t>231244</t>
+  </si>
+  <si>
+    <t>231245</t>
+  </si>
+  <si>
+    <t>231247</t>
+  </si>
+  <si>
+    <t>231248</t>
+  </si>
+  <si>
+    <t>231251</t>
+  </si>
+  <si>
+    <t>231252</t>
+  </si>
+  <si>
+    <t>231253</t>
+  </si>
+  <si>
+    <t>231254</t>
+  </si>
+  <si>
+    <t>231255</t>
+  </si>
+  <si>
+    <t>231256</t>
+  </si>
+  <si>
+    <t>231257</t>
+  </si>
+  <si>
+    <t>231258</t>
+  </si>
+  <si>
+    <t>231259</t>
+  </si>
+  <si>
+    <t>231261</t>
+  </si>
+  <si>
+    <t>231262</t>
+  </si>
+  <si>
+    <t>231264</t>
+  </si>
+  <si>
+    <t>231265</t>
+  </si>
+  <si>
+    <t>231266</t>
+  </si>
+  <si>
+    <t>231267</t>
+  </si>
+  <si>
+    <t>231268</t>
+  </si>
+  <si>
+    <t>231269</t>
+  </si>
+  <si>
+    <t>231270</t>
+  </si>
+  <si>
+    <t>231271</t>
+  </si>
+  <si>
+    <t>231272</t>
+  </si>
+  <si>
+    <t>231273</t>
+  </si>
+  <si>
+    <t>231274</t>
+  </si>
+  <si>
+    <t>231275</t>
+  </si>
+  <si>
+    <t>231276</t>
+  </si>
+  <si>
+    <t>231277</t>
+  </si>
+  <si>
+    <t>231278</t>
+  </si>
+  <si>
+    <t>231279</t>
+  </si>
+  <si>
+    <t>231280</t>
+  </si>
+  <si>
+    <t>231281</t>
+  </si>
+  <si>
+    <t>231282</t>
+  </si>
+  <si>
+    <t>231283</t>
+  </si>
+  <si>
+    <t>231284</t>
+  </si>
+  <si>
+    <t>231285</t>
+  </si>
+  <si>
+    <t>231286</t>
+  </si>
+  <si>
+    <t>231287</t>
+  </si>
+  <si>
+    <t>231288</t>
+  </si>
+  <si>
+    <t>231289</t>
+  </si>
+  <si>
+    <t>231290</t>
+  </si>
+  <si>
+    <t>231291</t>
+  </si>
+  <si>
+    <t>231292</t>
+  </si>
+  <si>
+    <t>231293</t>
+  </si>
+  <si>
+    <t>231294</t>
+  </si>
+  <si>
+    <t>231295</t>
+  </si>
+  <si>
+    <t>231296</t>
+  </si>
+  <si>
+    <t>231297</t>
+  </si>
+  <si>
+    <t>231298</t>
+  </si>
+  <si>
+    <t>231299</t>
+  </si>
+  <si>
+    <t>231300</t>
+  </si>
+  <si>
+    <t>231302</t>
+  </si>
+  <si>
+    <t>231303</t>
+  </si>
+  <si>
+    <t>231304</t>
+  </si>
+  <si>
+    <t>231305</t>
+  </si>
+  <si>
+    <t>231306</t>
+  </si>
+  <si>
+    <t>231307</t>
+  </si>
+  <si>
+    <t>231308</t>
+  </si>
+  <si>
+    <t>231309</t>
+  </si>
+  <si>
+    <t>231310</t>
+  </si>
+  <si>
+    <t>231311</t>
+  </si>
+  <si>
+    <t>231312</t>
+  </si>
+  <si>
+    <t>231313</t>
+  </si>
+  <si>
+    <t>231314</t>
+  </si>
+  <si>
+    <t>231315</t>
+  </si>
+  <si>
+    <t>231316</t>
+  </si>
+  <si>
+    <t>231317</t>
+  </si>
+  <si>
+    <t>231318</t>
+  </si>
+  <si>
+    <t>231319</t>
+  </si>
+  <si>
+    <t>231320</t>
+  </si>
+  <si>
+    <t>231321</t>
+  </si>
+  <si>
+    <t>231322</t>
+  </si>
+  <si>
+    <t>231323</t>
+  </si>
+  <si>
+    <t>231324</t>
+  </si>
+  <si>
+    <t>231325</t>
+  </si>
+  <si>
+    <t>231326</t>
+  </si>
+  <si>
+    <t>231327</t>
+  </si>
+  <si>
+    <t>13:32:50</t>
+  </si>
+  <si>
+    <t>13:32:51</t>
+  </si>
+  <si>
+    <t>13:32:52</t>
+  </si>
+  <si>
+    <t>13:32:53</t>
+  </si>
+  <si>
+    <t>13:32:54</t>
+  </si>
+  <si>
+    <t>13:32:55</t>
+  </si>
+  <si>
+    <t>13:32:56</t>
+  </si>
+  <si>
+    <t>13:32:57</t>
+  </si>
+  <si>
+    <t>13:32:58</t>
+  </si>
+  <si>
+    <t>Edited</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +412,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFF0F0F0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,14 +449,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,95 +795,2124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Student ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Subject</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Log Date</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Log Time</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Type</v>
-      </c>
-      <c r="F1" t="str">
-        <v>User</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>241423</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Pharmacology</v>
-      </c>
-      <c r="C2" t="str">
-        <v>05/10/2025</v>
-      </c>
-      <c r="D2" t="str">
-        <v>13:32:32</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Manual</v>
-      </c>
-      <c r="F2" t="str">
-        <v>marian.samir@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>231263</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pharmacology</v>
-      </c>
-      <c r="C3" t="str">
-        <v>05/10/2025</v>
-      </c>
-      <c r="D3" t="str">
-        <v>13:32:41</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Manual</v>
-      </c>
-      <c r="F3" t="str">
-        <v>marian.samir@med.asu.edu.eg</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>231147</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pharmacology</v>
-      </c>
-      <c r="C4" t="str">
-        <v>05/10/2025</v>
-      </c>
-      <c r="D4" t="str">
-        <v>13:32:49</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Manual</v>
-      </c>
-      <c r="F4" t="str">
-        <v>marian.samir@med.asu.edu.eg</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>231249</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>116</v>
+      </c>
+      <c r="E99" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError sqref="A1:F4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>